--- a/CPL_rev1_v5.xlsx
+++ b/CPL_rev1_v5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliow\OneDrive\Dokumente\GitHub\CHESS_OBC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57e57102d9b92534/Dokumente/GitHub/CHESS_OBC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BEB1AB-B170-4570-8355-FD7F0B9A13A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{49BEB1AB-B170-4570-8355-FD7F0B9A13A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB8CC340-F2EC-4930-BDD3-EC1F52BEB588}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1477" yWindow="2355" windowWidth="14401" windowHeight="8273" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pick Place for CHESSOBC_rev1" sheetId="1" r:id="rId1"/>
@@ -652,9 +652,6 @@
     <t>J2</t>
   </si>
   <si>
-    <t>ESQ-126-23-T-D</t>
-  </si>
-  <si>
     <t>SMTC-ESQ-126-23-X-D</t>
   </si>
   <si>
@@ -738,6 +735,9 @@
   </si>
   <si>
     <t>ProASIC3 Flash Family FPGA, 235 User IOs, 1M System Gates, 108 Kbits RAM, 1 Kbit Flash ROM, 1 PLL, 484-Ball FBGA, Commercial Grade</t>
+  </si>
+  <si>
+    <t>ESQ-126-39-G-D</t>
   </si>
 </sst>
 </file>
@@ -1586,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25">
         <v>91.275000000000006</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B26">
         <v>91.125</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27">
         <v>75.905900000000003</v>
@@ -4776,7 +4776,7 @@
         <v>93.350999999999999</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E125" t="s">
         <v>205</v>
@@ -4805,7 +4805,7 @@
         <v>90</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -4814,7 +4814,7 @@
         <v>208</v>
       </c>
       <c r="H126" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
@@ -4831,21 +4831,21 @@
         <v>90</v>
       </c>
       <c r="E127" t="s">
+        <v>238</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
         <v>210</v>
       </c>
-      <c r="F127" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>211</v>
-      </c>
-      <c r="H127" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B128">
         <v>117.602</v>
@@ -4857,21 +4857,21 @@
         <v>90</v>
       </c>
       <c r="E128" t="s">
+        <v>238</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
         <v>210</v>
       </c>
-      <c r="F128" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>211</v>
-      </c>
-      <c r="H128" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B129">
         <v>84.408600000000007</v>
@@ -4883,18 +4883,18 @@
         <v>180</v>
       </c>
       <c r="E129" t="s">
+        <v>214</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
         <v>215</v>
-      </c>
-      <c r="F129" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B130">
         <v>86.737799999999993</v>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B131">
         <v>75.626099999999994</v>
@@ -4929,21 +4929,21 @@
         <v>180</v>
       </c>
       <c r="E131" t="s">
+        <v>218</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
         <v>219</v>
       </c>
-      <c r="F131" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>220</v>
-      </c>
-      <c r="H131" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B132">
         <v>57.174999999999997</v>
@@ -4955,21 +4955,21 @@
         <v>180</v>
       </c>
       <c r="E132" t="s">
+        <v>222</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
         <v>223</v>
       </c>
-      <c r="F132" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>224</v>
-      </c>
-      <c r="H132" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B133">
         <v>78.588999999999999</v>
@@ -4981,21 +4981,21 @@
         <v>180</v>
       </c>
       <c r="E133" t="s">
+        <v>225</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
         <v>226</v>
       </c>
-      <c r="F133" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" t="s">
-        <v>227</v>
-      </c>
       <c r="H133" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B134">
         <v>68.2072</v>
@@ -5007,21 +5007,21 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
+        <v>228</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
         <v>229</v>
       </c>
-      <c r="F134" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>230</v>
-      </c>
-      <c r="H134" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B135">
         <v>65.847300000000004</v>
@@ -5033,19 +5033,20 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
+        <v>228</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
         <v>229</v>
       </c>
-      <c r="F135" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>230</v>
-      </c>
-      <c r="H135" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CPL_rev1_v5.xlsx
+++ b/CPL_rev1_v5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57e57102d9b92534/Dokumente/GitHub/CHESS_OBC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{49BEB1AB-B170-4570-8355-FD7F0B9A13A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB8CC340-F2EC-4930-BDD3-EC1F52BEB588}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{49BEB1AB-B170-4570-8355-FD7F0B9A13A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9765CD67-C59B-4F89-99DB-3D2A40D241D7}"/>
   <bookViews>
-    <workbookView xWindow="1477" yWindow="2355" windowWidth="14401" windowHeight="8273" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="2692" windowWidth="14400" windowHeight="8273" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pick Place for CHESSOBC_rev1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>TMP144YFFT</t>
   </si>
   <si>
-    <t>TopLayer</t>
-  </si>
-  <si>
     <t>Integrated Circuit</t>
   </si>
   <si>
@@ -94,18 +91,6 @@
     <t>CAPC1005X60X30ML05T10</t>
   </si>
   <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>LT6105IMS8#PBF</t>
-  </si>
-  <si>
-    <t>LT-MS8-8_N</t>
-  </si>
-  <si>
-    <t>Single Channel, Precision, Rail-to-Rail Input Current Sense Amplifier, 0.1 MHz Typical GBW, 2.85 to 36 V, 8-Pin SOP (MS8-8), Industrial, Pb-Free</t>
-  </si>
-  <si>
     <t>R17</t>
   </si>
   <si>
@@ -272,9 +257,6 @@
   </si>
   <si>
     <t>10k</t>
-  </si>
-  <si>
-    <t>BottomLayer</t>
   </si>
   <si>
     <t>RESC1005X40X25LL05T10</t>
@@ -738,6 +720,24 @@
   </si>
   <si>
     <t>ESQ-126-39-G-D</t>
+  </si>
+  <si>
+    <t>CurrentSensing</t>
+  </si>
+  <si>
+    <t>For current measuring</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>SOP65P640x120-8N</t>
+  </si>
+  <si>
+    <t>INA138QPWRQ1</t>
   </si>
 </sst>
 </file>
@@ -1586,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1638,18 +1638,18 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>87.210599999999999</v>
@@ -1661,21 +1661,21 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>86.7761</v>
@@ -1687,21 +1687,21 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>55.657499999999999</v>
@@ -1713,21 +1713,21 @@
         <v>180</v>
       </c>
       <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>57.5625</v>
@@ -1739,44 +1739,44 @@
         <v>90</v>
       </c>
       <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="B7">
-        <v>54.410699999999999</v>
+        <v>53.141800000000003</v>
       </c>
       <c r="C7">
-        <v>32.254800000000003</v>
+        <v>32.453000000000003</v>
       </c>
       <c r="D7">
         <v>270</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>60.148699999999998</v>
@@ -1788,21 +1788,21 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>79.090299999999999</v>
@@ -1814,21 +1814,21 @@
         <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>60.148699999999998</v>
@@ -1840,21 +1840,21 @@
         <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>77.280900000000003</v>
@@ -1866,21 +1866,21 @@
         <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>42.290999999999997</v>
@@ -1892,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>47.0914</v>
@@ -1918,21 +1918,21 @@
         <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>101.473</v>
@@ -1944,21 +1944,21 @@
         <v>270</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>47.013599999999997</v>
@@ -1970,21 +1970,21 @@
         <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>42.3688</v>
@@ -1996,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>34.312800000000003</v>
@@ -2022,21 +2022,21 @@
         <v>270</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>37.0092</v>
@@ -2048,21 +2048,21 @@
         <v>270</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>39.460500000000003</v>
@@ -2074,21 +2074,21 @@
         <v>270</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>94.075000000000003</v>
@@ -2100,21 +2100,21 @@
         <v>270</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>94.15</v>
@@ -2126,21 +2126,21 @@
         <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>34.312800000000003</v>
@@ -2152,21 +2152,21 @@
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>37.009099999999997</v>
@@ -2178,21 +2178,21 @@
         <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>39.460500000000003</v>
@@ -2204,21 +2204,21 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B25">
         <v>91.275000000000006</v>
@@ -2230,21 +2230,21 @@
         <v>270</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B26">
         <v>91.125</v>
@@ -2256,21 +2256,21 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B27">
         <v>75.905900000000003</v>
@@ -2282,21 +2282,21 @@
         <v>270</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>78.214100000000002</v>
@@ -2308,21 +2308,21 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>35.179000000000002</v>
@@ -2334,21 +2334,21 @@
         <v>270</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>80.239800000000002</v>
@@ -2360,21 +2360,21 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B31">
         <v>86.727599999999995</v>
@@ -2386,21 +2386,21 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B32">
         <v>76.581000000000003</v>
@@ -2412,18 +2412,18 @@
         <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <v>74.284000000000006</v>
@@ -2435,18 +2435,18 @@
         <v>180</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B34">
         <v>78.261899999999997</v>
@@ -2458,18 +2458,18 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B35">
         <v>74.284000000000006</v>
@@ -2481,18 +2481,18 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B36">
         <v>42.290999999999997</v>
@@ -2504,21 +2504,21 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B37">
         <v>47.013599999999997</v>
@@ -2530,21 +2530,21 @@
         <v>180</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B38">
         <v>40.569000000000003</v>
@@ -2556,18 +2556,18 @@
         <v>180</v>
       </c>
       <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" t="s">
         <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B39">
         <v>40.569099999999999</v>
@@ -2579,18 +2579,18 @@
         <v>180</v>
       </c>
       <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>235</v>
+      </c>
+      <c r="G39" t="s">
         <v>22</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B40">
         <v>40.569000000000003</v>
@@ -2602,18 +2602,18 @@
         <v>180</v>
       </c>
       <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" t="s">
         <v>22</v>
-      </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B41">
         <v>40.569000000000003</v>
@@ -2625,18 +2625,18 @@
         <v>180</v>
       </c>
       <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G41" t="s">
         <v>22</v>
-      </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B42">
         <v>107.13209999999999</v>
@@ -2648,18 +2648,18 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" t="s">
+        <v>235</v>
+      </c>
+      <c r="G42" t="s">
         <v>22</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B43">
         <v>107.13209999999999</v>
@@ -2671,18 +2671,18 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" t="s">
         <v>22</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B44">
         <v>69.275599999999997</v>
@@ -2694,21 +2694,21 @@
         <v>270</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G44" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H44" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B45">
         <v>70.934399999999997</v>
@@ -2720,18 +2720,18 @@
         <v>90</v>
       </c>
       <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" t="s">
         <v>22</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B46">
         <v>86.862799999999993</v>
@@ -2743,18 +2743,18 @@
         <v>180</v>
       </c>
       <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>235</v>
+      </c>
+      <c r="G46" t="s">
         <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B47">
         <v>57.473999999999997</v>
@@ -2766,18 +2766,18 @@
         <v>180</v>
       </c>
       <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>236</v>
+      </c>
+      <c r="G47" t="s">
         <v>22</v>
-      </c>
-      <c r="F47" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B48">
         <v>57.473999999999997</v>
@@ -2789,21 +2789,21 @@
         <v>180</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G48" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H48" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>55.487000000000002</v>
@@ -2815,18 +2815,18 @@
         <v>90</v>
       </c>
       <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>236</v>
+      </c>
+      <c r="G49" t="s">
         <v>22</v>
-      </c>
-      <c r="F49" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B50">
         <v>47.222499999999997</v>
@@ -2838,21 +2838,21 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G50" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H50" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B51">
         <v>44.287999999999997</v>
@@ -2864,21 +2864,21 @@
         <v>180</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G51" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H51" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B52">
         <v>46.473999999999997</v>
@@ -2890,21 +2890,21 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G52" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H52" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B53">
         <v>44.193100000000001</v>
@@ -2916,21 +2916,21 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G53" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H53" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B54">
         <v>51.973999999999997</v>
@@ -2942,21 +2942,21 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G54" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H54" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B55">
         <v>50.168700000000001</v>
@@ -2968,21 +2968,21 @@
         <v>180</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G55" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H55" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B56">
         <v>49.945700000000002</v>
@@ -2994,21 +2994,21 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G56" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H56" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B57">
         <v>52.473999999999997</v>
@@ -3020,21 +3020,21 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G57" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H57" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B58">
         <v>46.119799999999998</v>
@@ -3046,21 +3046,21 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F58" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G58" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H58" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B59">
         <v>48.046500000000002</v>
@@ -3072,21 +3072,21 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G59" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H59" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B60">
         <v>49.945700000000002</v>
@@ -3098,21 +3098,21 @@
         <v>180</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F60" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G60" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H60" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B61">
         <v>49.973300000000002</v>
@@ -3124,21 +3124,21 @@
         <v>180</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G61" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H61" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B62">
         <v>53.972499999999997</v>
@@ -3150,21 +3150,21 @@
         <v>270</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G62" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H62" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B63">
         <v>48.080199999999998</v>
@@ -3176,21 +3176,21 @@
         <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G63" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H63" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B64">
         <v>56.973999999999997</v>
@@ -3202,21 +3202,21 @@
         <v>90</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G64" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H64" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B65">
         <v>53.243000000000002</v>
@@ -3228,21 +3228,21 @@
         <v>270</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G65" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H65" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B66">
         <v>56.169699999999999</v>
@@ -3254,21 +3254,21 @@
         <v>270</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G66" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H66" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B67">
         <v>57.473999999999997</v>
@@ -3280,47 +3280,47 @@
         <v>180</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G67" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H67" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B68">
-        <v>55.108499999999999</v>
+        <v>54.815800000000003</v>
       </c>
       <c r="C68">
-        <v>75.92</v>
+        <v>74.983000000000004</v>
       </c>
       <c r="D68">
         <v>180</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G68" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H68" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B69">
         <v>57.973999999999997</v>
@@ -3332,21 +3332,21 @@
         <v>90</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G69" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H69" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B70">
         <v>63.473999999999997</v>
@@ -3358,47 +3358,47 @@
         <v>180</v>
       </c>
       <c r="E70" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G70" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H70" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B71">
         <v>63.473999999999997</v>
       </c>
       <c r="C71">
-        <v>71.920699999999997</v>
+        <v>72.479200000000006</v>
       </c>
       <c r="D71">
         <v>180</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G71" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H71" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B72">
         <v>51.811199999999999</v>
@@ -3410,21 +3410,21 @@
         <v>90</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G72" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H72" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B73">
         <v>63.473999999999997</v>
@@ -3436,21 +3436,21 @@
         <v>180</v>
       </c>
       <c r="E73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G73" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H73" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B74">
         <v>55.973999999999997</v>
@@ -3462,21 +3462,21 @@
         <v>270</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G74" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H74" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B75">
         <v>59.418300000000002</v>
@@ -3488,21 +3488,21 @@
         <v>90</v>
       </c>
       <c r="E75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H75" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B76">
         <v>57.473999999999997</v>
@@ -3514,47 +3514,47 @@
         <v>180</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G76" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H76" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B77">
         <v>63.473999999999997</v>
       </c>
       <c r="C77">
-        <v>70.92</v>
+        <v>70.674899999999994</v>
       </c>
       <c r="D77">
         <v>180</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F77" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G77" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H77" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B78">
         <v>46.214799999999997</v>
@@ -3566,21 +3566,21 @@
         <v>180</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G78" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H78" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B79">
         <v>43.973999999999997</v>
@@ -3592,21 +3592,21 @@
         <v>270</v>
       </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G79" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H79" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B80">
         <v>50.473999999999997</v>
@@ -3618,21 +3618,21 @@
         <v>180</v>
       </c>
       <c r="E80" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G80" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H80" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B81">
         <v>46.214799999999997</v>
@@ -3644,21 +3644,21 @@
         <v>180</v>
       </c>
       <c r="E81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G81" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H81" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B82">
         <v>53.415500000000002</v>
@@ -3670,21 +3670,21 @@
         <v>270</v>
       </c>
       <c r="E82" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F82" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G82" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H82" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B83">
         <v>46.119799999999998</v>
@@ -3696,21 +3696,21 @@
         <v>180</v>
       </c>
       <c r="E83" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F83" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G83" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H83" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B84">
         <v>43.973999999999997</v>
@@ -3722,21 +3722,21 @@
         <v>90</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F84" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G84" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B85">
         <v>50.473999999999997</v>
@@ -3748,21 +3748,21 @@
         <v>180</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F85" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G85" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B86">
         <v>50.473999999999997</v>
@@ -3774,21 +3774,21 @@
         <v>180</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G86" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B87">
         <v>43.904299999999999</v>
@@ -3800,21 +3800,21 @@
         <v>180</v>
       </c>
       <c r="E87" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F87" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G87" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H87" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B88">
         <v>50.473999999999997</v>
@@ -3826,21 +3826,21 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F88" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G88" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B89">
         <v>44.973999999999997</v>
@@ -3852,21 +3852,21 @@
         <v>270</v>
       </c>
       <c r="E89" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F89" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G89" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B90">
         <v>48.107700000000001</v>
@@ -3878,21 +3878,21 @@
         <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G90" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B91">
         <v>52.973500000000001</v>
@@ -3904,21 +3904,21 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F91" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G91" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B92">
         <v>57.287300000000002</v>
@@ -3930,21 +3930,21 @@
         <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F92" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G92" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H92" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B93">
         <v>45.974499999999999</v>
@@ -3956,21 +3956,21 @@
         <v>270</v>
       </c>
       <c r="E93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F93" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G93" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B94">
         <v>58.973500000000001</v>
@@ -3982,21 +3982,21 @@
         <v>90</v>
       </c>
       <c r="E94" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F94" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G94" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B95">
         <v>65.474000000000004</v>
@@ -4008,21 +4008,21 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F95" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G95" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B96">
         <v>56.973999999999997</v>
@@ -4034,21 +4034,21 @@
         <v>90</v>
       </c>
       <c r="E96" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F96" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G96" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H96" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B97">
         <v>54.169699999999999</v>
@@ -4060,21 +4060,21 @@
         <v>90</v>
       </c>
       <c r="E97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F97" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G97" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H97" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B98">
         <v>63.994399999999999</v>
@@ -4086,21 +4086,21 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F98" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G98" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H98" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B99">
         <v>51.6387</v>
@@ -4112,21 +4112,21 @@
         <v>90</v>
       </c>
       <c r="E99" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F99" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G99" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H99" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B100">
         <v>59.473999999999997</v>
@@ -4138,21 +4138,21 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F100" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G100" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H100" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B101">
         <v>61.473999999999997</v>
@@ -4164,21 +4164,21 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F101" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G101" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H101" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B102">
         <v>65.474000000000004</v>
@@ -4190,21 +4190,21 @@
         <v>180</v>
       </c>
       <c r="E102" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G102" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H102" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B103">
         <v>59.473999999999997</v>
@@ -4216,21 +4216,21 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F103" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G103" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H103" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B104">
         <v>61.400700000000001</v>
@@ -4242,21 +4242,21 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F104" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G104" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H104" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B105">
         <v>65.974000000000004</v>
@@ -4268,21 +4268,21 @@
         <v>270</v>
       </c>
       <c r="E105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F105" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G105" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H105" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B106">
         <v>59.473999999999997</v>
@@ -4294,21 +4294,21 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F106" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G106" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H106" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B107">
         <v>61.400700000000001</v>
@@ -4320,21 +4320,21 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F107" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G107" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H107" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B108">
         <v>57.973999999999997</v>
@@ -4346,21 +4346,21 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F108" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G108" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H108" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B109">
         <v>57.613999999999997</v>
@@ -4372,21 +4372,21 @@
         <v>90</v>
       </c>
       <c r="E109" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F109" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G109" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H109" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B110">
         <v>61.506900000000002</v>
@@ -4398,21 +4398,21 @@
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F110" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G110" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H110" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B111">
         <v>64.474000000000004</v>
@@ -4424,21 +4424,21 @@
         <v>180</v>
       </c>
       <c r="E111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G111" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H111" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B112">
         <v>55.0197</v>
@@ -4450,21 +4450,21 @@
         <v>270</v>
       </c>
       <c r="E112" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F112" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G112" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H112" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B113">
         <v>57.973999999999997</v>
@@ -4476,21 +4476,21 @@
         <v>270</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F113" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G113" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H113" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B114">
         <v>64.474000000000004</v>
@@ -4502,21 +4502,21 @@
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F114" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G114" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H114" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B115">
         <v>52.095500000000001</v>
@@ -4528,21 +4528,21 @@
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F115" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G115" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H115" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B116">
         <v>46.05</v>
@@ -4554,21 +4554,21 @@
         <v>270</v>
       </c>
       <c r="E116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G116" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H116" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B117">
         <v>52.473999999999997</v>
@@ -4580,21 +4580,21 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F117" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G117" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H117" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B118">
         <v>49.446199999999997</v>
@@ -4606,21 +4606,21 @@
         <v>270</v>
       </c>
       <c r="E118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F118" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G118" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H118" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B119">
         <v>52.525500000000001</v>
@@ -4632,21 +4632,21 @@
         <v>180</v>
       </c>
       <c r="E119" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F119" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="G119" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H119" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B120">
         <v>52.578000000000003</v>
@@ -4658,21 +4658,21 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F120" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G120" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H120" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B121">
         <v>39.068899999999999</v>
@@ -4684,18 +4684,18 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F121" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G121" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B122">
         <v>31.376899999999999</v>
@@ -4707,18 +4707,18 @@
         <v>180</v>
       </c>
       <c r="E122" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F122" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G122" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B123">
         <v>94.596299999999999</v>
@@ -4730,18 +4730,18 @@
         <v>270</v>
       </c>
       <c r="F123" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G123" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H123" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B124">
         <v>75.051000000000002</v>
@@ -4753,21 +4753,21 @@
         <v>270</v>
       </c>
       <c r="E124" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F124" t="s">
+        <v>235</v>
+      </c>
+      <c r="G124" t="s">
+        <v>197</v>
+      </c>
+      <c r="H124" t="s">
         <v>10</v>
-      </c>
-      <c r="G124" t="s">
-        <v>203</v>
-      </c>
-      <c r="H124" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B125">
         <v>54.222999999999999</v>
@@ -4779,21 +4779,21 @@
         <v>270</v>
       </c>
       <c r="E125" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F125" t="s">
+        <v>235</v>
+      </c>
+      <c r="G125" t="s">
+        <v>200</v>
+      </c>
+      <c r="H125" t="s">
         <v>10</v>
-      </c>
-      <c r="G125" t="s">
-        <v>206</v>
-      </c>
-      <c r="H125" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B126">
         <v>55.07</v>
@@ -4805,21 +4805,21 @@
         <v>90</v>
       </c>
       <c r="E126" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F126" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G126" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H126" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B127">
         <v>112.52200000000001</v>
@@ -4831,21 +4831,21 @@
         <v>90</v>
       </c>
       <c r="E127" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F127" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G127" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H127" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B128">
         <v>117.602</v>
@@ -4857,21 +4857,21 @@
         <v>90</v>
       </c>
       <c r="E128" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F128" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G128" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H128" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B129">
         <v>84.408600000000007</v>
@@ -4883,18 +4883,18 @@
         <v>180</v>
       </c>
       <c r="E129" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F129" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G129" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B130">
         <v>86.737799999999993</v>
@@ -4906,18 +4906,18 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F130" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G130" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B131">
         <v>75.626099999999994</v>
@@ -4929,21 +4929,21 @@
         <v>180</v>
       </c>
       <c r="E131" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F131" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G131" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H131" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B132">
         <v>57.174999999999997</v>
@@ -4955,21 +4955,21 @@
         <v>180</v>
       </c>
       <c r="E132" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F132" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G132" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H132" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B133">
         <v>78.588999999999999</v>
@@ -4981,21 +4981,21 @@
         <v>180</v>
       </c>
       <c r="E133" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F133" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G133" t="s">
+        <v>220</v>
+      </c>
+      <c r="H133" t="s">
         <v>226</v>
-      </c>
-      <c r="H133" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B134">
         <v>68.2072</v>
@@ -5007,21 +5007,21 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F134" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G134" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H134" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B135">
         <v>65.847300000000004</v>
@@ -5033,16 +5033,16 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F135" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G135" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H135" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
